--- a/hiseo/fcakron.ru/forms.xlsx
+++ b/hiseo/fcakron.ru/forms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Матч</t>
   </si>
@@ -113,12 +113,99 @@
   <si>
     <t xml:space="preserve">Дата:    2019-10-06                      </t>
   </si>
+  <si>
+    <t>Команда</t>
+  </si>
+  <si>
+    <t>Игрок</t>
+  </si>
+  <si>
+    <t>корректировки счетчиков</t>
+  </si>
+  <si>
+    <t>Акрон</t>
+  </si>
+  <si>
+    <t>Номер    Капитан</t>
+  </si>
+  <si>
+    <t>фамиля</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>позиция  страна</t>
+  </si>
+  <si>
+    <t>фото 1</t>
+  </si>
+  <si>
+    <t>фото 2</t>
+  </si>
+  <si>
+    <t>д.р.</t>
+  </si>
+  <si>
+    <t>Рост Вес</t>
+  </si>
+  <si>
+    <t>загрузить</t>
+  </si>
+  <si>
+    <t>матчи</t>
+  </si>
+  <si>
+    <t>выходы на старте</t>
+  </si>
+  <si>
+    <t>выходы на замене</t>
+  </si>
+  <si>
+    <t>замен в ходе матча</t>
+  </si>
+  <si>
+    <t>голевые передачи</t>
+  </si>
+  <si>
+    <t>голы </t>
+  </si>
+  <si>
+    <t>жёлтые карточки</t>
+  </si>
+  <si>
+    <t>красные карточки</t>
+  </si>
+  <si>
+    <t>сейвы </t>
+  </si>
+  <si>
+    <t>пропуски</t>
+  </si>
+  <si>
+    <t>фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
+    <t>фото</t>
+  </si>
+  <si>
+    <t>иванов</t>
+  </si>
+  <si>
+    <t>иванович</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +237,33 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,7 +297,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,115 +593,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="36.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:B10"/>
+  <mergeCells count="6">
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/hiseo/fcakron.ru/forms.xlsx
+++ b/hiseo/fcakron.ru/forms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Матч</t>
   </si>
@@ -199,6 +199,42 @@
   </si>
   <si>
     <t>иванович</t>
+  </si>
+  <si>
+    <t>рост вес</t>
+  </si>
+  <si>
+    <t>команд</t>
+  </si>
+  <si>
+    <t>ф</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>др</t>
+  </si>
+  <si>
+    <t>позиция</t>
+  </si>
+  <si>
+    <t>номер</t>
+  </si>
+  <si>
+    <t>капитан</t>
+  </si>
+  <si>
+    <t>гражданство</t>
+  </si>
+  <si>
+    <t>второе гражданство</t>
+  </si>
+  <si>
+    <t>росиия</t>
+  </si>
+  <si>
+    <t>португалия</t>
   </si>
 </sst>
 </file>
@@ -278,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,14 +340,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,17 +632,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="36.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
@@ -673,7 +712,7 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -684,11 +723,11 @@
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -726,15 +765,15 @@
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -746,10 +785,10 @@
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -772,8 +811,8 @@
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="9" t="s">
         <v>31</v>
       </c>
@@ -794,8 +833,8 @@
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="9" t="s">
         <v>32</v>
       </c>
@@ -830,7 +869,7 @@
       <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -844,7 +883,7 @@
       <c r="C21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -853,10 +892,74 @@
       <c r="C22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="C8:C10"/>
